--- a/ProjectDocument/Project_DB_statement.xlsx
+++ b/ProjectDocument/Project_DB_statement.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Spring\sts-3.9.18.RELEASE\project\ProjectDocument\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97FEDBB5-997C-4BB2-823D-C8A30AADBDC9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42DE910A-53A8-4EA3-98D6-8C4D4AA7814D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" firstSheet="6" activeTab="12" xr2:uid="{9279E566-631C-4D9B-BD12-632C93A84634}"/>
+    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" firstSheet="8" activeTab="14" xr2:uid="{9279E566-631C-4D9B-BD12-632C93A84634}"/>
   </bookViews>
   <sheets>
     <sheet name="DB Statement Form" sheetId="29" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1387" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1358" uniqueCount="199">
   <si>
     <t>memberId</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -736,10 +736,6 @@
   </si>
   <si>
     <t>Y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>o</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1565,10 +1561,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C736E54-E8FD-4668-A6A4-A49C37FE62E4}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1949,17 +1948,20 @@
     <mergeCell ref="B21:C21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="42" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="72" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E582F5F2-505B-4A03-9252-37BBED07512A}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1971,9 +1973,9 @@
     <col min="5" max="5" width="13.625" customWidth="1"/>
     <col min="6" max="6" width="7.875" customWidth="1"/>
     <col min="7" max="7" width="6.75" customWidth="1"/>
-    <col min="8" max="8" width="33.25" customWidth="1"/>
+    <col min="8" max="8" width="30.875" customWidth="1"/>
     <col min="9" max="9" width="12.75" customWidth="1"/>
-    <col min="10" max="10" width="47.375" customWidth="1"/>
+    <col min="10" max="10" width="49.75" customWidth="1"/>
     <col min="11" max="11" width="8" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1995,9 +1997,6 @@
       </c>
       <c r="J1" s="5" t="s">
         <v>36</v>
-      </c>
-      <c r="K1" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -2434,8 +2433,8 @@
     <mergeCell ref="C3:H3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="43" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="72" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="10" max="1048575" man="1"/>
   </colBreaks>
@@ -2444,10 +2443,13 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3A430D8-FA9E-4D7A-B444-D101F85823BF}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2483,9 +2485,6 @@
       </c>
       <c r="J1" s="5" t="s">
         <v>36</v>
-      </c>
-      <c r="K1" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -2947,17 +2946,20 @@
     <mergeCell ref="C3:H3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="42" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="72" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A83F9A2-6EB3-4271-8D48-8E9B98BEFD4B}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2994,9 +2996,6 @@
       <c r="J1" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="K1" t="s">
-        <v>169</v>
-      </c>
     </row>
     <row r="2" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="40" t="s">
@@ -3090,7 +3089,7 @@
         <v>145</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="6"/>
@@ -3376,17 +3375,20 @@
     <mergeCell ref="C3:H3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="43" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="72" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF81AF8D-223A-48DF-ACDB-9F261E994924}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3423,9 +3425,6 @@
       <c r="J1" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="K1" t="s">
-        <v>169</v>
-      </c>
     </row>
     <row r="2" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="40" t="s">
@@ -3433,7 +3432,7 @@
       </c>
       <c r="B2" s="41"/>
       <c r="C2" s="31" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D2" s="31"/>
       <c r="E2" s="31"/>
@@ -3454,7 +3453,7 @@
       </c>
       <c r="B3" s="43"/>
       <c r="C3" s="32" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D3" s="32"/>
       <c r="E3" s="32"/>
@@ -3503,7 +3502,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C5" s="31"/>
       <c r="D5" s="28" t="s">
@@ -3525,7 +3524,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="31" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C6" s="31"/>
       <c r="D6" s="28" t="s">
@@ -3549,7 +3548,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="31" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C7" s="31"/>
       <c r="D7" s="28" t="s">
@@ -3571,11 +3570,11 @@
         <v>4</v>
       </c>
       <c r="B8" s="31" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C8" s="31"/>
       <c r="D8" s="28" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E8" s="28"/>
       <c r="F8" s="28" t="s">
@@ -3801,11 +3800,6 @@
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B5:C5"/>
@@ -3813,6 +3807,11 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:H1"/>
     <mergeCell ref="A2:B2"/>
@@ -3821,17 +3820,20 @@
     <mergeCell ref="C3:H3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="43" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="72" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EDB21F9-7E68-4486-A423-4D3F8A6D54AE}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3867,9 +3869,6 @@
       </c>
       <c r="J1" s="5" t="s">
         <v>36</v>
-      </c>
-      <c r="K1" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -4331,17 +4330,20 @@
     <mergeCell ref="C3:H3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="43" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="72" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4AA9128-86EC-4155-84E8-886D27912A89}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4378,9 +4380,6 @@
       <c r="J1" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="K1" t="s">
-        <v>169</v>
-      </c>
     </row>
     <row r="2" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="40" t="s">
@@ -4388,7 +4387,7 @@
       </c>
       <c r="B2" s="41"/>
       <c r="C2" s="31" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D2" s="31"/>
       <c r="E2" s="31"/>
@@ -4458,7 +4457,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C5" s="31"/>
       <c r="D5" s="18" t="s">
@@ -4476,7 +4475,7 @@
       <c r="H5" s="18"/>
       <c r="I5" s="18"/>
       <c r="J5" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
@@ -4841,17 +4840,20 @@
     <mergeCell ref="B26:C26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="43" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="72" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0831E8B1-8523-4FBB-B005-767C0D18C871}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H7" sqref="H6:H7"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4887,9 +4889,6 @@
       </c>
       <c r="J1" s="5" t="s">
         <v>36</v>
-      </c>
-      <c r="K1" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -5351,17 +5350,20 @@
     <mergeCell ref="C3:H3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="43" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="72" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E46420F-908F-4503-9219-FC7BD3CF8A6B}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5398,9 +5400,6 @@
       <c r="J1" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="K1" t="s">
-        <v>169</v>
-      </c>
     </row>
     <row r="2" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="40" t="s">
@@ -5564,7 +5563,7 @@
         <v>43</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I8" s="3"/>
       <c r="J8" s="6"/>
@@ -5826,17 +5825,20 @@
     <mergeCell ref="C3:H3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="43" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="72" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F99FD79D-6DB7-4FA7-9EB7-358E10E920F8}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5873,9 +5875,6 @@
       <c r="J1" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="K1" t="s">
-        <v>169</v>
-      </c>
     </row>
     <row r="2" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="40" t="s">
@@ -6063,7 +6062,7 @@
         <v>43</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I9" s="3"/>
       <c r="J9" s="6"/>
@@ -6073,7 +6072,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="31" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C10" s="31"/>
       <c r="D10" s="3" t="s">
@@ -6089,7 +6088,7 @@
         <v>44</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
@@ -6303,17 +6302,20 @@
     <mergeCell ref="C3:H3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="43" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="72" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44D4B235-60BD-44BE-96C5-D2D0C91F2F75}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6350,9 +6352,6 @@
       <c r="J1" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="K1" t="s">
-        <v>169</v>
-      </c>
     </row>
     <row r="2" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="40" t="s">
@@ -6540,7 +6539,7 @@
         <v>43</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I9" s="3"/>
       <c r="J9" s="6"/>
@@ -6550,7 +6549,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="31" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C10" s="31"/>
       <c r="D10" s="3" t="s">
@@ -6566,7 +6565,7 @@
         <v>44</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
@@ -6780,17 +6779,20 @@
     <mergeCell ref="C3:H3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="43" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="72" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10AA261D-EC74-4A91-B909-50D85C0533EC}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6827,9 +6829,6 @@
       <c r="J1" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="K1" t="s">
-        <v>169</v>
-      </c>
     </row>
     <row r="2" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="40" t="s">
@@ -7029,14 +7028,14 @@
         <v>6</v>
       </c>
       <c r="B10" s="31" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C10" s="31"/>
       <c r="D10" s="3" t="s">
         <v>37</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>160</v>
@@ -7047,7 +7046,7 @@
         <v>0</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
@@ -7284,17 +7283,20 @@
     <mergeCell ref="B9:C9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="43" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="71" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{349A017C-6DC4-45F0-B91D-07C2E70D4343}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7331,9 +7333,6 @@
       <c r="J1" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="K1" t="s">
-        <v>169</v>
-      </c>
     </row>
     <row r="2" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="40" t="s">
@@ -7521,7 +7520,7 @@
         <v>43</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I9" s="3"/>
       <c r="J9" s="6"/>
@@ -7531,7 +7530,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="31" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C10" s="31"/>
       <c r="D10" s="3" t="s">
@@ -7547,7 +7546,7 @@
         <v>44</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
@@ -7761,17 +7760,20 @@
     <mergeCell ref="C3:H3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="43" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="72" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0956D64F-09F2-4FE8-9B71-62DD641B30A5}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7808,9 +7810,6 @@
       <c r="J1" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="K1" t="s">
-        <v>169</v>
-      </c>
     </row>
     <row r="2" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="40" t="s">
@@ -7818,7 +7817,7 @@
       </c>
       <c r="B2" s="41"/>
       <c r="C2" s="31" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D2" s="31"/>
       <c r="E2" s="31"/>
@@ -7952,7 +7951,7 @@
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
@@ -7998,7 +7997,7 @@
         <v>43</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I9" s="3"/>
       <c r="J9" s="6" t="s">
@@ -8010,7 +8009,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="31" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C10" s="31"/>
       <c r="D10" s="3" t="s">
@@ -8026,7 +8025,7 @@
         <v>44</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
@@ -8240,17 +8239,20 @@
     <mergeCell ref="B21:C21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="43" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="72" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F8649D0-9E8C-4E22-A465-B446589F5A67}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8287,9 +8289,6 @@
       <c r="J1" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="K1" t="s">
-        <v>169</v>
-      </c>
     </row>
     <row r="2" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="40" t="s">
@@ -8444,7 +8443,7 @@
         <v>75</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>41</v>
@@ -8477,7 +8476,7 @@
         <v>43</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I9" s="3"/>
       <c r="J9" s="6" t="s">
@@ -8707,16 +8706,20 @@
     <mergeCell ref="B21:C21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="72" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C524CEF9-AF44-4DB3-A4F2-63B57C9E1D9E}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8753,9 +8756,6 @@
       <c r="J1" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="K1" t="s">
-        <v>169</v>
-      </c>
     </row>
     <row r="2" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="40" t="s">
@@ -8910,7 +8910,7 @@
         <v>75</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>41</v>
@@ -8945,7 +8945,7 @@
         <v>43</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I9" s="3"/>
       <c r="J9" s="6" t="s">
@@ -9175,17 +9175,20 @@
     <mergeCell ref="B21:C21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="43" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="72" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{617AF5B4-23C0-45ED-8E04-ADCB1AEF6924}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9222,9 +9225,6 @@
       <c r="J1" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="K1" t="s">
-        <v>169</v>
-      </c>
     </row>
     <row r="2" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="40" t="s">
@@ -9379,7 +9379,7 @@
         <v>75</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>41</v>
@@ -9412,7 +9412,7 @@
         <v>43</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I9" s="3"/>
       <c r="J9" s="6" t="s">
@@ -9642,17 +9642,20 @@
     <mergeCell ref="B21:C21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="43" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="72" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFF2AFCB-AAA2-472F-A245-60B9D5DADA40}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9689,9 +9692,6 @@
       <c r="J1" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="K1" t="s">
-        <v>169</v>
-      </c>
     </row>
     <row r="2" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="40" t="s">
@@ -9846,7 +9846,7 @@
         <v>75</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>41</v>
@@ -9879,7 +9879,7 @@
         <v>43</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I9" s="3"/>
       <c r="J9" s="6" t="s">
@@ -10109,17 +10109,20 @@
     <mergeCell ref="B21:C21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="43" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="72" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05CD6D8F-F4F3-4726-BFA4-B85442EA880F}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10156,9 +10159,6 @@
       <c r="J1" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="K1" t="s">
-        <v>169</v>
-      </c>
     </row>
     <row r="2" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="40" t="s">
@@ -10313,7 +10313,7 @@
         <v>75</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>41</v>
@@ -10362,7 +10362,7 @@
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="24" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="6"/>
@@ -10578,17 +10578,20 @@
     <mergeCell ref="B21:C21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="65" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="72" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8118265-4E64-4A05-A9AA-176622D3697C}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10625,9 +10628,6 @@
       <c r="J1" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="K1" t="s">
-        <v>169</v>
-      </c>
     </row>
     <row r="2" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="40" t="s">
@@ -10782,7 +10782,7 @@
         <v>75</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>41</v>
@@ -10831,7 +10831,7 @@
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="24" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="6"/>
@@ -11047,17 +11047,20 @@
     <mergeCell ref="B21:C21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="43" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="72" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99B99051-2853-4D61-9587-525FC42CBEBE}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -11094,9 +11097,6 @@
       <c r="J1" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="K1" t="s">
-        <v>169</v>
-      </c>
     </row>
     <row r="2" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="40" t="s">
@@ -11300,7 +11300,7 @@
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="24" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="6"/>
@@ -11516,17 +11516,20 @@
     <mergeCell ref="B21:C21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="43" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="72" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F3EBD48-4248-4D17-AB8F-07215909D35A}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -11562,9 +11565,6 @@
       </c>
       <c r="J1" s="5" t="s">
         <v>36</v>
-      </c>
-      <c r="K1" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -11987,17 +11987,20 @@
     <mergeCell ref="B21:C21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="43" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="72" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BFC7709-8DB2-4DD0-B933-22AE274655EF}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -12034,9 +12037,6 @@
       <c r="J1" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="K1" t="s">
-        <v>169</v>
-      </c>
     </row>
     <row r="2" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="40" t="s">
@@ -12256,14 +12256,14 @@
         <v>7</v>
       </c>
       <c r="B11" s="31" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C11" s="31"/>
       <c r="D11" s="17" t="s">
         <v>37</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F11" s="17" t="s">
         <v>49</v>
@@ -12274,7 +12274,7 @@
         <v>0</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
@@ -12499,17 +12499,20 @@
     <mergeCell ref="C3:H3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="43" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="72" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21A49ED9-2C27-438A-9963-7040B65DEFBD}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -12545,9 +12548,6 @@
       </c>
       <c r="J1" s="5" t="s">
         <v>36</v>
-      </c>
-      <c r="K1" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -12990,17 +12990,20 @@
     <mergeCell ref="B15:C15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="43" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="72" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0B9ABF1-4933-43F0-964A-0392C486D323}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -13037,9 +13040,6 @@
       <c r="J1" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="K1" t="s">
-        <v>169</v>
-      </c>
     </row>
     <row r="2" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="40" t="s">
@@ -13133,7 +13133,7 @@
         <v>43</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="6" t="s">
@@ -13161,7 +13161,7 @@
         <v>43</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="6"/>
@@ -13425,17 +13425,20 @@
     <mergeCell ref="C3:H3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="43" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="72" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9DD78A1-AD4D-4A42-9C8E-B85DF4ECA48B}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -13471,9 +13474,6 @@
       </c>
       <c r="J1" s="5" t="s">
         <v>36</v>
-      </c>
-      <c r="K1" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -13928,17 +13928,20 @@
     <mergeCell ref="C3:H3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="43" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="72" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E18DA80-F651-47CC-B46F-8D4DD3274B1F}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -13974,9 +13977,6 @@
       </c>
       <c r="J1" s="5" t="s">
         <v>36</v>
-      </c>
-      <c r="K1" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -14452,17 +14452,20 @@
     <mergeCell ref="C3:H3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="43" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="72" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEAD009B-9113-476D-B211-F246291C5BE3}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -14498,9 +14501,6 @@
       </c>
       <c r="J1" s="5" t="s">
         <v>36</v>
-      </c>
-      <c r="K1" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -14933,17 +14933,20 @@
     <mergeCell ref="C3:H3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="43" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="72" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D580FE1B-D5DA-4346-A283-5052181895DB}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -14980,9 +14983,6 @@
       <c r="J1" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="K1" t="s">
-        <v>169</v>
-      </c>
     </row>
     <row r="2" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="40" t="s">
@@ -14990,7 +14990,7 @@
       </c>
       <c r="B2" s="41"/>
       <c r="C2" s="31" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D2" s="31"/>
       <c r="E2" s="31"/>
@@ -15011,7 +15011,7 @@
       </c>
       <c r="B3" s="43"/>
       <c r="C3" s="32" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D3" s="32"/>
       <c r="E3" s="32"/>
@@ -15060,7 +15060,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C5" s="31"/>
       <c r="D5" s="18" t="s">
@@ -15078,7 +15078,7 @@
       <c r="H5" s="18"/>
       <c r="I5" s="18"/>
       <c r="J5" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
@@ -15431,17 +15431,20 @@
     <mergeCell ref="B26:C26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="43" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="72" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48B9608A-48D2-4307-B3A6-E31EDEBB4B50}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -15477,9 +15480,6 @@
       </c>
       <c r="J1" s="5" t="s">
         <v>36</v>
-      </c>
-      <c r="K1" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -15929,7 +15929,7 @@
     <mergeCell ref="C3:H3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="43" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="72" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>